--- a/NformTester/NformTester/Keywordscripts/900.30.010_PlottingGraph.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.30.010_PlottingGraph.xlsx
@@ -3710,113 +3710,113 @@
     <t xml:space="preserve">2. It should verify that the graph should be plotted with the duration/specific time. </t>
   </si>
   <si>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script Info</t>
+  </si>
+  <si>
+    <t>Script Data</t>
+  </si>
+  <si>
+    <t>Test Object</t>
+  </si>
+  <si>
+    <t>C:\\Nform\\bin\\NformViewer.exe</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Create Date</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Running Range</t>
+  </si>
+  <si>
+    <t>"15"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Right-click anywhere on the graph area. Select 'Print'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graph_trends</t>
+  </si>
+  <si>
+    <t>RightClick</t>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormContextMenuContextMenuStrip</t>
+  </si>
+  <si>
+    <t>TrendsPrint</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Verify that:Graph should be printed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Right-click anywhere on the graph area for a pop-up menu with additional options. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrendsCopy_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;Verify that:A user will have the ability to copy the data used in the graph to the Windows clipboard. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Save this Image as say image.emf.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrendsSave_Image_As</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;Verify that: The image should be saved properly. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Verify that: verify that the Image should be open.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>$SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Script Info</t>
-  </si>
-  <si>
-    <t>Script Data</t>
-  </si>
-  <si>
-    <t>Test Object</t>
-  </si>
-  <si>
-    <t>C:\\Nform\\bin\\NformViewer.exe</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Create Date</t>
-  </si>
-  <si>
-    <t>Update Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Running Range</t>
-  </si>
-  <si>
-    <t>"15"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Right-click anywhere on the graph area. Select 'Print'.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Graph_trends</t>
-  </si>
-  <si>
-    <t>RightClick</t>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormContextMenuContextMenuStrip</t>
-  </si>
-  <si>
-    <t>TrendsPrint</t>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Verify that:Graph should be printed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Right-click anywhere on the graph area for a pop-up menu with additional options. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrendsCopy_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">;Verify that:A user will have the ability to copy the data used in the graph to the Windows clipboard. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Save this Image as say image.emf.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrendsSave_Image_As</t>
-  </si>
-  <si>
-    <t xml:space="preserve">;Verify that: The image should be saved properly. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Verify that: verify that the Image should be open.</t>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3856,6 +3856,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3894,6 +3895,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3976,7 +3978,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3987,8 +3989,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4033,41 +4038,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -4822,8 +4801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="E37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4844,10 +4823,10 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>757</v>
@@ -4889,10 +4868,10 @@
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -4914,10 +4893,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4949,10 +4928,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
@@ -4980,7 +4959,7 @@
     </row>
     <row r="5" spans="1:15" ht="15">
       <c r="A5" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B5" s="10">
         <v>41815</v>
@@ -5005,10 +4984,10 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -5026,11 +5005,11 @@
       <c r="H6" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>827</v>
+      <c r="I6" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>857</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>787</v>
@@ -5071,7 +5050,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="5">
@@ -5147,8 +5126,8 @@
       <c r="G10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>827</v>
+      <c r="H10" s="18" t="s">
+        <v>857</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -5297,7 +5276,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="5"/>
@@ -5471,8 +5450,8 @@
       <c r="H21" s="11">
         <v>2</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>827</v>
+      <c r="I21" s="18" t="s">
+        <v>857</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -6034,7 +6013,7 @@
         <v>804</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J43" s="11" t="b">
         <v>1</v>
@@ -6229,7 +6208,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="5"/>
@@ -6253,10 +6232,10 @@
         <v>19</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
@@ -6271,13 +6250,13 @@
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>845</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>846</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>847</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>2</v>
@@ -6295,10 +6274,10 @@
         <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F54" s="5">
         <v>2</v>
@@ -6317,7 +6296,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -6335,10 +6314,10 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F56" s="5">
         <v>5</v>
@@ -6357,7 +6336,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="5"/>
@@ -6381,10 +6360,10 @@
         <v>19</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
@@ -6399,13 +6378,13 @@
         <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>2</v>
@@ -6423,10 +6402,10 @@
         <v>59</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F60" s="5">
         <v>2</v>
@@ -6445,7 +6424,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -6463,10 +6442,10 @@
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F62" s="5">
         <v>5</v>
@@ -6485,7 +6464,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="5"/>
@@ -6503,7 +6482,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="5"/>
@@ -6527,10 +6506,10 @@
         <v>19</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
@@ -6545,13 +6524,13 @@
         <v>65</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>2</v>
@@ -6569,10 +6548,10 @@
         <v>66</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F67" s="5">
         <v>5</v>
@@ -6591,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="5"/>
@@ -6609,10 +6588,10 @@
         <v>68</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F69" s="5">
         <v>5</v>
@@ -6631,7 +6610,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="5"/>
@@ -6649,10 +6628,10 @@
         <v>70</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F71" s="5">
         <v>5</v>
@@ -28807,39 +28786,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B5" s="10">
         <v>41815</v>
@@ -28847,10 +28826,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -28863,7 +28842,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B8" s="9"/>
     </row>
